--- a/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.22639209937003</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09601807302549172</v>
+        <v>0.09601807302549173</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05473900556327671</v>
@@ -697,7 +697,7 @@
         <v>0.2124472890842939</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1061904480265618</v>
+        <v>0.1061904480265617</v>
       </c>
     </row>
     <row r="5">
@@ -712,28 +712,28 @@
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.05020119818162969</v>
+        <v>0.05178537199731947</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02232165917515355</v>
+        <v>0.02184583054987169</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.05984775766928783</v>
+        <v>0.05763881627898692</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02368158556808237</v>
+        <v>0.02360325245167055</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="n">
-        <v>0.08385191862403682</v>
+        <v>0.08751451051548782</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04574521345915149</v>
+        <v>0.04359096808915156</v>
       </c>
     </row>
     <row r="6">
@@ -744,32 +744,32 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3887501335644277</v>
+        <v>0.4284132482562445</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4594782631783323</v>
+        <v>0.4876458111718034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2988681792536314</v>
+        <v>0.3045329370815423</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.4509701032435861</v>
+        <v>0.5019026970615058</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2185484660855123</v>
+        <v>0.2029378827062228</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2649956774946795</v>
+        <v>0.2722268326017752</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.3733729225432854</v>
+        <v>0.3674863907702176</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2176416003727404</v>
+        <v>0.2088768230389393</v>
       </c>
     </row>
     <row r="7">
@@ -793,7 +793,7 @@
         <v>0.1161586091211065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09194171715319854</v>
+        <v>0.09194171715319853</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02394763390610312</v>
+        <v>0.02440173143521585</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
@@ -845,19 +845,19 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.04363550986549182</v>
+        <v>0.04879577494178621</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0152862777823424</v>
+        <v>0.01541773999292355</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05081892617424935</v>
+        <v>0.05175163142944376</v>
       </c>
     </row>
     <row r="9">
@@ -868,36 +868,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4803104835565157</v>
+        <v>0.4493706554437403</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1437534965592935</v>
+        <v>0.1445094900606688</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3463650269651289</v>
+        <v>0.3564562725559315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2478314544725513</v>
+        <v>0.2453891790687416</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.2462529139316471</v>
+        <v>0.2456350036821832</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.271348922758483</v>
+        <v>0.2871635125649319</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3356307817887559</v>
+        <v>0.3441238232740743</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1338225629669752</v>
+        <v>0.1265185285549936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1600194708496004</v>
+        <v>0.1612836693680467</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2017772361994239</v>
+        <v>0.2118482942223069</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0.1776651851623665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2195131875094549</v>
+        <v>0.219513187509455</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2354451772922734</v>
@@ -956,38 +956,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03648578199081214</v>
+        <v>0.03946895865434177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05163272808330307</v>
+        <v>0.04157618916795253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06373941070720526</v>
+        <v>0.07894465232719923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09592968243105737</v>
+        <v>0.1049430771699636</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04119763027379879</v>
+        <v>0.06619664234378622</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.03314052770781352</v>
+        <v>0.03334597499013021</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07527590464636665</v>
+        <v>0.06422607589447793</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06548453132311387</v>
+        <v>0.06561168516394246</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04911836688981034</v>
+        <v>0.0642086934126687</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1071980458607535</v>
+        <v>0.1073896906904563</v>
       </c>
     </row>
     <row r="12">
@@ -998,38 +998,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3694584534303925</v>
+        <v>0.3724345778107047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2387893602969905</v>
+        <v>0.2278297140919712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3453950293772204</v>
+        <v>0.3445199392312209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3817806369102523</v>
+        <v>0.3879010722985322</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8226626527291551</v>
+        <v>0.8439113950122616</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4851768769622524</v>
+        <v>0.4695039236890581</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3682592302435442</v>
+        <v>0.3623732520011725</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.377170756096188</v>
+        <v>0.3722424101600905</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2375283689985701</v>
+        <v>0.2429141160515466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2794928702864529</v>
+        <v>0.2591721815362878</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3363503955867656</v>
+        <v>0.3263722769326379</v>
       </c>
     </row>
     <row r="13">
@@ -1088,38 +1088,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07961301866192061</v>
+        <v>0.09627256543096192</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03813585741515489</v>
+        <v>0.03403362128020661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03401229381007053</v>
+        <v>0.03307930959019745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1170321948896003</v>
+        <v>0.1112736150197278</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06310881540225613</v>
+        <v>0.05135079031263715</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02807743011499194</v>
+        <v>0.03225493570196575</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0490819328837119</v>
+        <v>0.05793652053992947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03249358150874757</v>
+        <v>0.0323011124003193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06192950849381876</v>
+        <v>0.06248938255902902</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09031189221973655</v>
+        <v>0.09306568778218695</v>
       </c>
     </row>
     <row r="15">
@@ -1130,38 +1130,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3511212904114784</v>
+        <v>0.3761173705167944</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1489533806873703</v>
+        <v>0.151141562193739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2106405020279745</v>
+        <v>0.2059363070699473</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.368262237453483</v>
+        <v>0.3444118008512599</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.1223247368586461</v>
+        <v>0.1248973981540337</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3432784198416639</v>
+        <v>0.3177890556370946</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1434193836572497</v>
+        <v>0.1401789196848146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2396009793326425</v>
+        <v>0.2368170801790171</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1109656282852095</v>
+        <v>0.1156857439072962</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2102113416241732</v>
+        <v>0.2034107061202147</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2460172166422978</v>
+        <v>0.2429333907237638</v>
       </c>
     </row>
     <row r="16">
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07281507547702666</v>
+        <v>0.07300998809961835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02014178533203196</v>
+        <v>0.019713118430806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05385178109228467</v>
+        <v>0.0567503233605057</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03806436127309661</v>
+        <v>0.0514124539930074</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02567729405426248</v>
+        <v>0.02568180373689352</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07153614381521814</v>
+        <v>0.06779632971066377</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07800415209708725</v>
+        <v>0.07823463040855401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03385254023262683</v>
+        <v>0.02664681685879747</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08185618528424633</v>
+        <v>0.08103330717379145</v>
       </c>
     </row>
     <row r="18">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5371297066894656</v>
+        <v>0.448115610855616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3484286077364934</v>
+        <v>0.351218969121094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1900735389616089</v>
+        <v>0.1946160681839451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2814119280694213</v>
+        <v>0.2706058693116159</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1716785874595018</v>
+        <v>0.1669370229919676</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2250188641444332</v>
+        <v>0.233929227722873</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2104808728902098</v>
+        <v>0.2133598116346348</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3330787757709163</v>
+        <v>0.3272357154691276</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2529973925509424</v>
+        <v>0.2281854230139491</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2294180988582215</v>
+        <v>0.231767926729947</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1497374931722394</v>
+        <v>0.15111446998143</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2703751105724783</v>
+        <v>0.2483292334829098</v>
       </c>
     </row>
     <row r="19">
@@ -1366,28 +1366,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03453984270640688</v>
+        <v>0.03472705494161354</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02511512124813985</v>
+        <v>0.02513704167994993</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0428621245296</v>
+        <v>0.04831516935639501</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05990108889969101</v>
+        <v>0.05859165244835586</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02221888349369262</v>
+        <v>0.0219390499320462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02681154526969857</v>
+        <v>0.02633849043353725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04924570971185899</v>
+        <v>0.04658879867446526</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06163675459112924</v>
+        <v>0.06450073670967865</v>
       </c>
     </row>
     <row r="21">
@@ -1399,37 +1399,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.1839195697127618</v>
+        <v>0.1824671615881412</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2276962163377957</v>
+        <v>0.2083918989133992</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7203303923172183</v>
+        <v>0.6271359990412708</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2995666713875861</v>
+        <v>0.2649107132133137</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1384333023409391</v>
+        <v>0.1427877146228612</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2288514856802123</v>
+        <v>0.2354136747378243</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2310515056745384</v>
+        <v>0.2213591074525923</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1710413927514215</v>
+        <v>0.1970431113447036</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.120894368931106</v>
+        <v>0.1181510445566012</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1825132482150862</v>
+        <v>0.1788188193626447</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2286494653288983</v>
+        <v>0.2337342906623172</v>
       </c>
     </row>
     <row r="22">
@@ -1488,40 +1488,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08314802623420943</v>
+        <v>0.08377494149985237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1168742968539872</v>
+        <v>0.11847400737532</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08274903910265059</v>
+        <v>0.08442792172889346</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06644713444511034</v>
+        <v>0.06238033036612999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.110707635159061</v>
+        <v>0.1095386754538081</v>
       </c>
     </row>
     <row r="24">
@@ -1532,40 +1532,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2205748152153957</v>
+        <v>0.22556778588535</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2340481744938689</v>
+        <v>0.2298134844567522</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1675430440766116</v>
+        <v>0.1791377699304828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1595006391704969</v>
+        <v>0.1532305377159466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1807642403487996</v>
+        <v>0.1803515137947158</v>
       </c>
     </row>
     <row r="25">
@@ -1842,28 +1842,28 @@
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>1081</v>
+        <v>1115</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1201</v>
+        <v>1157</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="n">
-        <v>3489</v>
+        <v>3641</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2381</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="7">
@@ -1874,32 +1874,32 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4897</v>
+        <v>5397</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>9895</v>
+        <v>10502</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7731</v>
+        <v>7877</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>9051</v>
+        <v>10073</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5723</v>
+        <v>5315</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5395</v>
+        <v>5542</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>15535</v>
+        <v>15290</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11330</v>
+        <v>10873</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -2019,19 +2019,19 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>1090</v>
+        <v>1219</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2577</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="11">
@@ -2042,36 +2042,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6379</v>
+        <v>5968</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4664</v>
+        <v>4689</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5840</v>
+        <v>6010</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6377</v>
+        <v>6314</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6613</v>
+        <v>6597</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>6779</v>
+        <v>7174</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6333</v>
+        <v>6493</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7936</v>
+        <v>7503</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6232</v>
+        <v>6281</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>10233</v>
+        <v>10744</v>
       </c>
     </row>
     <row r="12">
@@ -2174,38 +2174,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1032</v>
+        <v>1116</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2924</v>
+        <v>2355</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1980</v>
+        <v>2453</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3575</v>
+        <v>3911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>577</v>
+        <v>927</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2502</v>
+        <v>2135</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4626</v>
+        <v>4635</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1958</v>
+        <v>2560</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5356</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="15">
@@ -2216,38 +2216,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10450</v>
+        <v>10534</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13525</v>
+        <v>12904</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10730</v>
+        <v>10703</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14229</v>
+        <v>14457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4078</v>
+        <v>4183</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6792</v>
+        <v>6573</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4672</v>
+        <v>4598</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12538</v>
+        <v>12374</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16779</v>
+        <v>17159</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11142</v>
+        <v>10332</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16804</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="16">
@@ -2350,38 +2350,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3107</v>
+        <v>3757</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3647</v>
+        <v>3254</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2006</v>
+        <v>1951</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9103</v>
+        <v>8655</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2427</v>
+        <v>1975</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1555</v>
+        <v>1787</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3143</v>
+        <v>3710</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4689</v>
+        <v>4661</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6035</v>
+        <v>6090</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12027</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="19">
@@ -2392,38 +2392,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13702</v>
+        <v>14677</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14243</v>
+        <v>14452</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12426</v>
+        <v>12149</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28643</v>
+        <v>26788</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5955</v>
+        <v>6080</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13204</v>
+        <v>12224</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7945</v>
+        <v>7765</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15342</v>
+        <v>15164</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16012</v>
+        <v>16693</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20487</v>
+        <v>19824</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>32763</v>
+        <v>32352</v>
       </c>
     </row>
     <row r="20">
@@ -2529,37 +2529,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2787</v>
+        <v>2795</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2171</v>
+        <v>2288</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2216</v>
+        <v>2994</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1038</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4075</v>
+        <v>3862</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7528</v>
+        <v>7550</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2776</v>
+        <v>2185</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7963</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="23">
@@ -2570,40 +2570,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6790</v>
+        <v>5665</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13337</v>
+        <v>13444</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7904</v>
+        <v>8093</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11347</v>
+        <v>10911</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3854</v>
+        <v>3747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13102</v>
+        <v>13621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8506</v>
+        <v>8622</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18972</v>
+        <v>18639</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8878</v>
+        <v>8007</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>22140</v>
+        <v>22366</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12278</v>
+        <v>12390</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26302</v>
+        <v>24158</v>
       </c>
     </row>
     <row r="24">
@@ -2716,28 +2716,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2590</v>
+        <v>2920</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2947</v>
+        <v>2883</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3112</v>
+        <v>3057</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4434</v>
+        <v>4194</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3724</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="27">
@@ -2749,37 +2749,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4934</v>
+        <v>4895</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6739</v>
+        <v>6168</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8084</v>
+        <v>7038</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8400</v>
+        <v>7429</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12356</v>
+        <v>12744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13831</v>
+        <v>14227</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11367</v>
+        <v>10890</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7566</v>
+        <v>8716</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>14033</v>
+        <v>13715</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>16432</v>
+        <v>16099</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13815</v>
+        <v>14122</v>
       </c>
     </row>
     <row r="28">
@@ -2882,40 +2882,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10146</v>
+        <v>10222</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25501</v>
+        <v>25850</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18653</v>
+        <v>19031</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14341</v>
+        <v>13463</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>49110</v>
+        <v>48592</v>
       </c>
     </row>
     <row r="31">
@@ -2926,40 +2926,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>26915</v>
+        <v>27524</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>51067</v>
+        <v>50143</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>37766</v>
+        <v>40380</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>34424</v>
+        <v>33071</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>80188</v>
+        <v>80005</v>
       </c>
     </row>
     <row r="32">
